--- a/Bosa_Decadal.xlsx
+++ b/Bosa_Decadal.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49.097</v>
+        <v>48.541</v>
       </c>
       <c r="C2">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47.985</v>
+        <v>46.872</v>
       </c>
       <c r="C3">
         <v>0.02</v>
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46.872</v>
+        <v>45.203</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45.759</v>
+        <v>43.534</v>
       </c>
       <c r="C5">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>44.646</v>
+        <v>41.864</v>
       </c>
       <c r="C6">
-        <v>0.026</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43.534</v>
+        <v>40.195</v>
       </c>
       <c r="C7">
-        <v>0.033</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>42.421</v>
+        <v>38.526</v>
       </c>
       <c r="C8">
-        <v>0.039</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>41.308</v>
+        <v>36.857</v>
       </c>
       <c r="C9">
-        <v>0.039</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.195</v>
+        <v>35.188</v>
       </c>
       <c r="C10">
-        <v>0.039</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>39.083</v>
+        <v>33.519</v>
       </c>
       <c r="C11">
-        <v>0.046</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.97</v>
+        <v>31.85</v>
       </c>
       <c r="C12">
-        <v>0.059</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.857</v>
+        <v>30.181</v>
       </c>
       <c r="C13">
-        <v>0.079</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.744</v>
+        <v>28.512</v>
       </c>
       <c r="C14">
-        <v>0.098</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.632</v>
+        <v>26.843</v>
       </c>
       <c r="C15">
-        <v>0.124</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.519</v>
+        <v>25.173</v>
       </c>
       <c r="C16">
-        <v>0.131</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.406</v>
+        <v>23.504</v>
       </c>
       <c r="C17">
-        <v>0.137</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.294</v>
+        <v>21.835</v>
       </c>
       <c r="C18">
-        <v>0.196</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.181</v>
+        <v>20.166</v>
       </c>
       <c r="C19">
-        <v>0.249</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.068</v>
+        <v>18.497</v>
       </c>
       <c r="C20">
-        <v>0.308</v>
+        <v>2.245</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.955</v>
+        <v>16.828</v>
       </c>
       <c r="C21">
-        <v>0.399</v>
+        <v>3.181</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.843</v>
+        <v>15.159</v>
       </c>
       <c r="C22">
-        <v>0.504</v>
+        <v>4.562</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.73</v>
+        <v>13.49</v>
       </c>
       <c r="C23">
-        <v>0.589</v>
+        <v>6.564</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.617</v>
+        <v>11.821</v>
       </c>
       <c r="C24">
-        <v>0.668</v>
+        <v>9.411</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.504</v>
+        <v>10.152</v>
       </c>
       <c r="C25">
-        <v>0.785</v>
+        <v>13.514</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22.392</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="C26">
-        <v>0.9419999999999999</v>
+        <v>18.966</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>21.279</v>
+        <v>6.813</v>
       </c>
       <c r="C27">
-        <v>1.178</v>
+        <v>28.966</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20.166</v>
+        <v>5.144</v>
       </c>
       <c r="C28">
-        <v>1.61</v>
+        <v>42.997</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19.053</v>
+        <v>3.475</v>
       </c>
       <c r="C29">
-        <v>2.029</v>
+        <v>69.05800000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>17.941</v>
+        <v>1.806</v>
       </c>
       <c r="C30">
-        <v>2.526</v>
+        <v>89.221</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,175 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>16.828</v>
+        <v>0.137</v>
       </c>
       <c r="C31">
-        <v>3.181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>15.715</v>
-      </c>
-      <c r="C32">
-        <v>4.045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>14.603</v>
-      </c>
-      <c r="C33">
-        <v>5.144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>13.49</v>
-      </c>
-      <c r="C34">
-        <v>6.564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>12.377</v>
-      </c>
-      <c r="C35">
-        <v>8.449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>11.264</v>
-      </c>
-      <c r="C36">
-        <v>10.556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>10.152</v>
-      </c>
-      <c r="C37">
-        <v>13.514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>9.039</v>
-      </c>
-      <c r="C38">
-        <v>16.937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>7.926</v>
-      </c>
-      <c r="C39">
-        <v>22.147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>6.813</v>
-      </c>
-      <c r="C40">
-        <v>28.966</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>5.701</v>
-      </c>
-      <c r="C41">
-        <v>37.579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>4.588</v>
-      </c>
-      <c r="C42">
-        <v>50.452</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>3.475</v>
-      </c>
-      <c r="C43">
-        <v>69.05800000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>2.362</v>
-      </c>
-      <c r="C44">
-        <v>84.627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1.25</v>
-      </c>
-      <c r="C45">
-        <v>92.16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0.137</v>
-      </c>
-      <c r="C46">
-        <v>99.99299999999999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
